--- a/data/trans_orig/P14B21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E254967-8770-47D4-A7D0-91A9221B639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7028116F-7756-426B-B357-D875D3C2BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7228BEBE-8FF7-42BC-A1C9-3FA26E1975F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2381F79-A02C-4C95-9003-383A8A07A7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="322">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -85,16 +85,16 @@
     <t>75,9%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>38,22%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,16 +106,16 @@
     <t>24,1%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>61,78%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,49 +127,49 @@
     <t>60,09%</t>
   </si>
   <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>48,55%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -178,55 +178,55 @@
     <t>38,89%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -235,160 +235,160 @@
     <t>74,98%</t>
   </si>
   <si>
-    <t>27,76%</t>
+    <t>36,64%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -403,19 +403,16 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>14,69%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>52,05%</t>
@@ -424,127 +421,124 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>85,31%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>59,93%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>81,83%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>46,5%</t>
@@ -559,19 +553,19 @@
     <t>70,33%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>53,5%</t>
@@ -586,25 +580,25 @@
     <t>29,67%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>40,89%</t>
+    <t>39,39%</t>
   </si>
   <si>
     <t>87,64%</t>
@@ -613,403 +607,403 @@
     <t>57,1%</t>
   </si>
   <si>
-    <t>42,75%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>58,32%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>41,68%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>64,49%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>35,51%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>49,37%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>60,15%</t>
   </si>
   <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>39,85%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>53,44%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66BC2A4-9C58-492C-8537-51737B252F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159521FE-48C9-4B53-B6F8-6EC42011A715}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2484,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64735253-7070-48F6-ADCE-D877DA8D9859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0627C914-7AEA-47A8-8DFE-032A89AAF0C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2623,7 @@
         <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2638,13 +2632,13 @@
         <v>3842</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2653,7 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2674,13 +2668,13 @@
         <v>3076</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2689,13 +2683,13 @@
         <v>4225</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2757,13 @@
         <v>5716</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2778,13 +2772,13 @@
         <v>21193</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -2793,13 +2787,13 @@
         <v>26910</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2808,13 @@
         <v>3821</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2829,13 +2823,13 @@
         <v>4705</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2844,13 +2838,13 @@
         <v>8525</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2912,13 @@
         <v>7094</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2933,13 +2927,13 @@
         <v>40668</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2948,13 +2942,13 @@
         <v>47761</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2963,13 @@
         <v>2918</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2984,13 +2978,13 @@
         <v>20798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2999,13 +2993,13 @@
         <v>23716</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3067,13 @@
         <v>5096</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3088,13 +3082,13 @@
         <v>26747</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3103,13 +3097,13 @@
         <v>31844</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3118,13 @@
         <v>5864</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3139,13 +3133,13 @@
         <v>11286</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3154,13 +3148,13 @@
         <v>17149</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3222,13 @@
         <v>10155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3243,13 +3237,13 @@
         <v>36225</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3258,13 +3252,13 @@
         <v>46381</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3273,13 @@
         <v>5005</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3294,13 +3288,13 @@
         <v>27218</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3309,13 +3303,13 @@
         <v>32222</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3377,13 @@
         <v>29119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -3398,13 +3392,13 @@
         <v>127617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -3413,13 +3407,13 @@
         <v>156736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3428,13 @@
         <v>18756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -3449,13 +3443,13 @@
         <v>67082</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -3464,13 +3458,13 @@
         <v>85838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2BBD08-8D47-419C-BD4D-C3C129512034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D160AD-050C-4D47-B69E-4480413CF973}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,7 +3665,7 @@
         <v>1283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -3686,13 +3680,13 @@
         <v>4284</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3701,13 +3695,13 @@
         <v>5567</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3716,7 @@
         <v>1824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -3737,13 +3731,13 @@
         <v>2536</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3752,13 +3746,13 @@
         <v>4361</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3820,13 @@
         <v>16645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -3841,13 +3835,13 @@
         <v>34332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>82</v>
@@ -3856,13 +3850,13 @@
         <v>50976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3871,13 @@
         <v>10972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3892,13 +3886,13 @@
         <v>25459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -3907,13 +3901,13 @@
         <v>36432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3975,13 @@
         <v>18118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -3996,13 +3990,13 @@
         <v>67135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -4011,13 +4005,13 @@
         <v>85253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4026,13 @@
         <v>20556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4047,13 +4041,13 @@
         <v>30636</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -4062,13 +4056,13 @@
         <v>51192</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4130,13 @@
         <v>16367</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4151,13 +4145,13 @@
         <v>66837</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4166,13 +4160,13 @@
         <v>83204</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4181,13 @@
         <v>16787</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4202,13 +4196,13 @@
         <v>38331</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4217,13 +4211,13 @@
         <v>55118</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4285,13 @@
         <v>30136</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -4306,13 +4300,13 @@
         <v>102790</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -4321,13 +4315,13 @@
         <v>132927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4336,13 @@
         <v>21771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -4357,13 +4351,13 @@
         <v>45350</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4372,13 +4366,13 @@
         <v>67120</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4440,13 @@
         <v>82549</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>409</v>
@@ -4461,13 +4455,13 @@
         <v>275378</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>494</v>
@@ -4476,13 +4470,13 @@
         <v>357927</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4491,13 @@
         <v>71910</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -4512,13 +4506,13 @@
         <v>142312</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>275</v>
@@ -4527,13 +4521,13 @@
         <v>214223</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7028116F-7756-426B-B357-D875D3C2BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A4DEFE-8C2E-4DD6-8F9D-E68B50E0FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2381F79-A02C-4C95-9003-383A8A07A7F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C9F0FA6-D996-4675-9965-1CC8AE71AAFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="324">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,16 +85,16 @@
     <t>75,9%</t>
   </si>
   <si>
-    <t>38,22%</t>
+    <t>33,57%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +106,22 @@
     <t>24,1%</t>
   </si>
   <si>
-    <t>61,78%</t>
+    <t>66,43%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>60,09%</t>
@@ -133,19 +133,19 @@
     <t>68,92%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>67,88%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>39,91%</t>
@@ -157,127 +157,127 @@
     <t>31,08%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>38,89%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>36,64%</t>
+    <t>29,09%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>63,36%</t>
+    <t>70,91%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -286,115 +286,115 @@
     <t>51,16%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>57,04%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>48,84%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población cuyas migrañas le limita en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>47,95%</t>
@@ -403,16 +403,19 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>14,69%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>52,05%</t>
@@ -421,22 +424,25 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>85,31%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>59,93%</t>
   </si>
   <si>
-    <t>22,2%</t>
+    <t>24,67%</t>
   </si>
   <si>
     <t>90,45%</t>
@@ -445,19 +451,19 @@
     <t>81,83%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>40,07%</t>
@@ -466,306 +472,318 @@
     <t>9,55%</t>
   </si>
   <si>
-    <t>77,8%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
     <t>39,73%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
     <t>23,54%</t>
   </si>
   <si>
@@ -847,9 +865,6 @@
     <t>49,37%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
     <t>69,19%</t>
   </si>
   <si>
@@ -877,9 +892,6 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
     <t>36,45%</t>
   </si>
   <si>
@@ -967,9 +979,6 @@
     <t>61,17%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
     <t>62,56%</t>
   </si>
   <si>
@@ -989,9 +998,6 @@
   </si>
   <si>
     <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
   </si>
   <si>
     <t>38,83%</t>
@@ -1415,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159521FE-48C9-4B53-B6F8-6EC42011A715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAFACA7-61F0-4215-BF60-88EAB9797BAD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2478,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0627C914-7AEA-47A8-8DFE-032A89AAF0C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75BFB5B-6EBA-4AC7-BA11-40862CC37BAE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,7 +2629,7 @@
         <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2632,13 +2638,13 @@
         <v>3842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2659,7 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2668,13 +2674,13 @@
         <v>3076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2683,13 +2689,13 @@
         <v>4225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2763,13 @@
         <v>5716</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2772,13 +2778,13 @@
         <v>21193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -2787,13 +2793,13 @@
         <v>26910</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2814,13 @@
         <v>3821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2823,13 +2829,13 @@
         <v>4705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2838,13 +2844,13 @@
         <v>8525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2918,13 @@
         <v>7094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2927,13 +2933,13 @@
         <v>40668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2942,13 +2948,13 @@
         <v>47761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>2918</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2978,13 +2984,13 @@
         <v>20798</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2993,13 +2999,13 @@
         <v>23716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3073,13 @@
         <v>5096</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3082,13 +3088,13 @@
         <v>26747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3097,13 +3103,13 @@
         <v>31844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>5864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3133,13 +3139,13 @@
         <v>11286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3148,13 +3154,13 @@
         <v>17149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3228,13 @@
         <v>10155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3237,13 +3243,13 @@
         <v>36225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3252,13 +3258,13 @@
         <v>46381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3279,13 @@
         <v>5005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3288,13 +3294,13 @@
         <v>27218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3303,13 +3309,13 @@
         <v>32222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3383,13 @@
         <v>29119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -3392,13 +3398,13 @@
         <v>127617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -3407,13 +3413,13 @@
         <v>156736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3434,13 @@
         <v>18756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -3443,13 +3449,13 @@
         <v>67082</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -3458,13 +3464,13 @@
         <v>85838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D160AD-050C-4D47-B69E-4480413CF973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B7CB4-420A-4606-9C0C-84E50B38FBDC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3558,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3665,7 +3671,7 @@
         <v>1283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -3680,13 +3686,13 @@
         <v>4284</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3695,13 +3701,13 @@
         <v>5567</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3722,7 @@
         <v>1824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -3731,13 +3737,13 @@
         <v>2536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3746,13 +3752,13 @@
         <v>4361</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3826,13 @@
         <v>16645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -3835,13 +3841,13 @@
         <v>34332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>82</v>
@@ -3850,13 +3856,13 @@
         <v>50976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3877,13 @@
         <v>10972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3886,13 +3892,13 @@
         <v>25459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -3901,13 +3907,13 @@
         <v>36432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3981,13 @@
         <v>18118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -3990,13 +3996,13 @@
         <v>67135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -4005,13 +4011,13 @@
         <v>85253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4032,13 @@
         <v>20556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4041,13 +4047,13 @@
         <v>30636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -4056,13 +4062,13 @@
         <v>51192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4136,13 @@
         <v>16367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4145,13 +4151,13 @@
         <v>66837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4160,13 +4166,13 @@
         <v>83204</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>16787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4196,13 +4202,13 @@
         <v>38331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4211,13 +4217,13 @@
         <v>55118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4291,13 @@
         <v>30136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -4300,13 +4306,13 @@
         <v>102790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -4315,13 +4321,13 @@
         <v>132927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4342,13 @@
         <v>21771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -4351,13 +4357,13 @@
         <v>45350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4366,13 +4372,13 @@
         <v>67120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4446,13 @@
         <v>82549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>409</v>
@@ -4455,13 +4461,13 @@
         <v>275378</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>494</v>
@@ -4470,13 +4476,13 @@
         <v>357927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4497,13 @@
         <v>71910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -4506,13 +4512,13 @@
         <v>142312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>275</v>
@@ -4521,13 +4527,13 @@
         <v>214223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
